--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hgf-Sdc2.xlsx
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H2">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I2">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J2">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N2">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O2">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P2">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q2">
-        <v>5.49353418305</v>
+        <v>0.04380368629266667</v>
       </c>
       <c r="R2">
-        <v>49.44180764745</v>
+        <v>0.394233176634</v>
       </c>
       <c r="S2">
-        <v>0.001148525536056622</v>
+        <v>1.062183932298779E-05</v>
       </c>
       <c r="T2">
-        <v>0.001148525536056622</v>
+        <v>1.062183932298779E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H3">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I3">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J3">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P3">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q3">
-        <v>709.422637351728</v>
+        <v>3.871383073242667</v>
       </c>
       <c r="R3">
-        <v>6384.803736165552</v>
+        <v>34.842447659184</v>
       </c>
       <c r="S3">
-        <v>0.1483180021649972</v>
+        <v>0.000938761379281509</v>
       </c>
       <c r="T3">
-        <v>0.1483180021649972</v>
+        <v>0.0009387613792815088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H4">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I4">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J4">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N4">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O4">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P4">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q4">
-        <v>281.014214069764</v>
+        <v>1.635103198781556</v>
       </c>
       <c r="R4">
-        <v>2529.127926627876</v>
+        <v>14.715928789034</v>
       </c>
       <c r="S4">
-        <v>0.0587512501241623</v>
+        <v>0.000396491823494514</v>
       </c>
       <c r="T4">
-        <v>0.05875125012416228</v>
+        <v>0.000396491823494514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H5">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I5">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J5">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N5">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O5">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P5">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q5">
-        <v>0.07700164247800001</v>
+        <v>0.006737772594666665</v>
       </c>
       <c r="R5">
-        <v>0.6930147823020001</v>
+        <v>0.060639953352</v>
       </c>
       <c r="S5">
-        <v>1.609862608612814E-05</v>
+        <v>1.633824546573864E-06</v>
       </c>
       <c r="T5">
-        <v>1.609862608612813E-05</v>
+        <v>1.633824546573864E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>33.85786</v>
       </c>
       <c r="I6">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J6">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N6">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O6">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P6">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q6">
-        <v>7.500738634944445</v>
+        <v>10.95977799604667</v>
       </c>
       <c r="R6">
-        <v>67.50664771450001</v>
+        <v>98.63800196442001</v>
       </c>
       <c r="S6">
-        <v>0.001568168973645536</v>
+        <v>0.002657607401163266</v>
       </c>
       <c r="T6">
-        <v>0.001568168973645536</v>
+        <v>0.002657607401163266</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>33.85786</v>
       </c>
       <c r="I7">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J7">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P7">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q7">
         <v>968.6285016495467</v>
@@ -883,10 +883,10 @@
         <v>8717.656514845921</v>
       </c>
       <c r="S7">
-        <v>0.2025098109936787</v>
+        <v>0.2348801477447883</v>
       </c>
       <c r="T7">
-        <v>0.2025098109936786</v>
+        <v>0.2348801477447882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>33.85786</v>
       </c>
       <c r="I8">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J8">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N8">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O8">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P8">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q8">
-        <v>383.6900075993289</v>
+        <v>409.106392086269</v>
       </c>
       <c r="R8">
-        <v>3453.21006839396</v>
+        <v>3681.957528776421</v>
       </c>
       <c r="S8">
-        <v>0.08021753519205832</v>
+        <v>0.09920312034275261</v>
       </c>
       <c r="T8">
-        <v>0.08021753519205831</v>
+        <v>0.0992031203427526</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>33.85786</v>
       </c>
       <c r="I9">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J9">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N9">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O9">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P9">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q9">
-        <v>0.1051361792688889</v>
+        <v>1.685805421306666</v>
       </c>
       <c r="R9">
-        <v>0.9462256134200002</v>
+        <v>15.17224879176</v>
       </c>
       <c r="S9">
-        <v>2.198067448571053E-05</v>
+        <v>0.0004087864705107918</v>
       </c>
       <c r="T9">
-        <v>2.198067448571053E-05</v>
+        <v>0.0004087864705107918</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H10">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I10">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J10">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N10">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O10">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P10">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q10">
-        <v>0.4171086330722222</v>
+        <v>0.8612431019253335</v>
       </c>
       <c r="R10">
-        <v>3.753977697649999</v>
+        <v>7.751187917328001</v>
       </c>
       <c r="S10">
-        <v>8.720432064866951E-05</v>
+        <v>0.000208840547929273</v>
       </c>
       <c r="T10">
-        <v>8.72043206486695E-05</v>
+        <v>0.000208840547929273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H11">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I11">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J11">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>257.478072</v>
       </c>
       <c r="O11">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P11">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q11">
-        <v>53.86446987974933</v>
+        <v>76.11692642632535</v>
       </c>
       <c r="R11">
-        <v>484.780228917744</v>
+        <v>685.0523378369281</v>
       </c>
       <c r="S11">
-        <v>0.0112613696541518</v>
+        <v>0.01845739093413847</v>
       </c>
       <c r="T11">
-        <v>0.0112613696541518</v>
+        <v>0.01845739093413847</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H12">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I12">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J12">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N12">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O12">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P12">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q12">
-        <v>21.33662061595244</v>
+        <v>32.14846671756979</v>
       </c>
       <c r="R12">
-        <v>192.029585543572</v>
+        <v>289.3362004581281</v>
       </c>
       <c r="S12">
-        <v>0.004460817538222374</v>
+        <v>0.007795596143962313</v>
       </c>
       <c r="T12">
-        <v>0.004460817538222373</v>
+        <v>0.007795596143962311</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H13">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I13">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J13">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N13">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O13">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P13">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q13">
-        <v>0.005846518610444444</v>
+        <v>0.1324742427093333</v>
       </c>
       <c r="R13">
-        <v>0.052618667494</v>
+        <v>1.192268184384</v>
       </c>
       <c r="S13">
-        <v>1.222323498385449E-06</v>
+        <v>3.212332658698172E-05</v>
       </c>
       <c r="T13">
-        <v>1.222323498385449E-06</v>
+        <v>3.212332658698172E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H14">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I14">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J14">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N14">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O14">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P14">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q14">
-        <v>12.97017699979722</v>
+        <v>20.64233518842567</v>
       </c>
       <c r="R14">
-        <v>116.731592998175</v>
+        <v>185.781016695831</v>
       </c>
       <c r="S14">
-        <v>0.002711656830570739</v>
+        <v>0.005005504928461271</v>
       </c>
       <c r="T14">
-        <v>0.002711656830570739</v>
+        <v>0.00500550492846127</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H15">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I15">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J15">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>257.478072</v>
       </c>
       <c r="O15">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P15">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q15">
-        <v>1674.939459283805</v>
+        <v>1824.375841492851</v>
       </c>
       <c r="R15">
-        <v>15074.45513355425</v>
+        <v>16419.38257343565</v>
       </c>
       <c r="S15">
-        <v>0.3501772586164706</v>
+        <v>0.4423880429515789</v>
       </c>
       <c r="T15">
-        <v>0.3501772586164706</v>
+        <v>0.4423880429515787</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H16">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I16">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J16">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N16">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O16">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P16">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q16">
-        <v>663.4716331045305</v>
+        <v>770.5367094313813</v>
       </c>
       <c r="R16">
-        <v>5971.244697940774</v>
+        <v>6934.830384882431</v>
       </c>
       <c r="S16">
-        <v>0.1387110897427191</v>
+        <v>0.1868453961924676</v>
       </c>
       <c r="T16">
-        <v>0.1387110897427191</v>
+        <v>0.1868453961924675</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H17">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I17">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J17">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N17">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O17">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P17">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q17">
-        <v>0.1818000760414445</v>
+        <v>3.175151958518666</v>
       </c>
       <c r="R17">
-        <v>1.636200684373</v>
+        <v>28.576367626668</v>
       </c>
       <c r="S17">
-        <v>3.800868854787178E-05</v>
+        <v>0.0007699341490147933</v>
       </c>
       <c r="T17">
-        <v>3.800868854787177E-05</v>
+        <v>0.0007699341490147932</v>
       </c>
     </row>
   </sheetData>
